--- a/CHIKUNGUNYA.xlsx
+++ b/CHIKUNGUNYA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Bangcaya\Desktop\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA835A-8EE2-46E7-8265-27F6CA79DBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A523B-56CA-4DCC-B22B-FCAE9F8242BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EB3FD34E-3D73-4B3E-A244-FDC66C3AC38C}"/>
+    <workbookView xWindow="-25965" yWindow="2940" windowWidth="17280" windowHeight="8970" xr2:uid="{EB3FD34E-3D73-4B3E-A244-FDC66C3AC38C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5CC5BA-B1C9-4AD6-9936-11C9E5BBEC09}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,6 +714,22 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
